--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestNG\TestNG\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS-014\git\TestNG\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="services" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -25,10 +26,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>7457413014</t>
+    <t>7878787878</t>
   </si>
   <si>
     <t>THATtime321!A</t>
+  </si>
+  <si>
+    <t>Pedicures</t>
   </si>
 </sst>
 </file>
@@ -294,8 +298,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -321,4 +325,20 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>